--- a/biology/Zoologie/Homotherium_serum/Homotherium_serum.xlsx
+++ b/biology/Zoologie/Homotherium_serum/Homotherium_serum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homotherium serum est une espèce fossile de grands félidés appartenant au genre également éteint Homotherium ayant vécu il y a entre 300 000 et 12 000 ans dans ce qui est aujourd’hui l'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homotherium serum est décrit par Cope en 1893[1],
-[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homotherium serum est décrit par Cope en 1893,
+.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homotherium serum, mesurait 1,1 mètre au garrot, 1,8 mètre de long et pesait de 190 à 250 kg. Il avait donc à peu près la taille d'un lion africain mâle[3],[4]. Un peu comme la savane africaine actuel, l'ancienne faune nord-américaine avait beaucoup d'animaux diversifiée mais aussi d'autres grand prédateur comme Smilodon fatalis, Canis dirus ou Arctodus simus ont cohabité voir rivalisé H. serum au fil du temps[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homotherium serum, mesurait 1,1 mètre au garrot, 1,8 mètre de long et pesait de 190 à 250 kg. Il avait donc à peu près la taille d'un lion africain mâle,. Un peu comme la savane africaine actuel, l'ancienne faune nord-américaine avait beaucoup d'animaux diversifiée mais aussi d'autres grand prédateur comme Smilodon fatalis, Canis dirus ou Arctodus simus ont cohabité voir rivalisé H. serum au fil du temps.
 </t>
         </is>
       </c>
